--- a/practiceStimulus.xlsx
+++ b/practiceStimulus.xlsx
@@ -11,15 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>stimuli_0</t>
   </si>
   <si>
-    <t>Stimuli/Keyboard-Sad-KeyOfAMinor.wav</t>
+    <t>trigger</t>
   </si>
   <si>
-    <t>Stimuli/Keyboard-Happy-KeyOfAMinor.wav</t>
+    <t>Stimuli/Set2-Vibr.wav</t>
+  </si>
+  <si>
+    <t>Stimuli/trigger_Set2-Vibr.wav</t>
   </si>
 </sst>
 </file>
@@ -64,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -76,6 +79,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -303,19 +312,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
@@ -334,7 +345,7 @@
       <c r="B7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
@@ -357,7 +368,7 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
@@ -367,7 +378,7 @@
       <c r="B16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2"/>
     </row>
     <row r="20">
